--- a/config_2.9/fish_use_config.xlsx
+++ b/config_2.9/fish_use_config.xlsx
@@ -2259,134 +2259,6 @@
             <v>190</v>
           </cell>
           <cell r="B191">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>191</v>
-          </cell>
-          <cell r="B192">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>192</v>
-          </cell>
-          <cell r="B193">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>193</v>
-          </cell>
-          <cell r="B194">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>194</v>
-          </cell>
-          <cell r="B195">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>195</v>
-          </cell>
-          <cell r="B196">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>196</v>
-          </cell>
-          <cell r="B197">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>197</v>
-          </cell>
-          <cell r="B198">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>198</v>
-          </cell>
-          <cell r="B199">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>199</v>
-          </cell>
-          <cell r="B200">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>200</v>
-          </cell>
-          <cell r="B201">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>201</v>
-          </cell>
-          <cell r="B202">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>202</v>
-          </cell>
-          <cell r="B203">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>203</v>
-          </cell>
-          <cell r="B204">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>204</v>
-          </cell>
-          <cell r="B205">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>205</v>
-          </cell>
-          <cell r="B206">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>206</v>
-          </cell>
-          <cell r="B207">
             <v>35</v>
           </cell>
         </row>
@@ -3019,11 +2891,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D190" sqref="D190"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5678,194 +5550,76 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="3">
-        <f>[1]use_fish!$A192</f>
-        <v>191</v>
-      </c>
-      <c r="B192" s="4">
-        <f>[1]use_fish!$B192</f>
-        <v>6</v>
-      </c>
-      <c r="C192" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
-        <f>[1]use_fish!$A193</f>
-        <v>192</v>
-      </c>
-      <c r="B193" s="4">
-        <f>[1]use_fish!$B193</f>
-        <v>7</v>
-      </c>
-      <c r="C193" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
-        <f>[1]use_fish!$A194</f>
-        <v>193</v>
-      </c>
-      <c r="B194" s="4">
-        <f>[1]use_fish!$B194</f>
-        <v>8</v>
-      </c>
-      <c r="C194" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="3">
-        <f>[1]use_fish!$A195</f>
-        <v>194</v>
-      </c>
-      <c r="B195" s="4">
-        <f>[1]use_fish!$B195</f>
-        <v>9</v>
-      </c>
-      <c r="C195" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="3">
-        <f>[1]use_fish!$A196</f>
-        <v>195</v>
-      </c>
-      <c r="B196" s="4">
-        <f>[1]use_fish!$B196</f>
-        <v>10</v>
-      </c>
-      <c r="C196" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
-        <f>[1]use_fish!$A197</f>
-        <v>196</v>
-      </c>
-      <c r="B197" s="4">
-        <f>[1]use_fish!$B197</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="3">
-        <f>[1]use_fish!$A198</f>
-        <v>197</v>
-      </c>
-      <c r="B198" s="4">
-        <f>[1]use_fish!$B198</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
-        <f>[1]use_fish!$A199</f>
-        <v>198</v>
-      </c>
-      <c r="B199" s="4">
-        <f>[1]use_fish!$B199</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="3">
-        <f>[1]use_fish!$A200</f>
-        <v>199</v>
-      </c>
-      <c r="B200" s="4">
-        <f>[1]use_fish!$B200</f>
-        <v>6</v>
-      </c>
-      <c r="C200" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
-        <f>[1]use_fish!$A201</f>
-        <v>200</v>
-      </c>
-      <c r="B201" s="4">
-        <f>[1]use_fish!$B201</f>
-        <v>7</v>
-      </c>
-      <c r="C201" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="3">
-        <f>[1]use_fish!$A202</f>
-        <v>201</v>
-      </c>
-      <c r="B202" s="4">
-        <f>[1]use_fish!$B202</f>
-        <v>8</v>
-      </c>
-      <c r="C202" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
-        <f>[1]use_fish!$A203</f>
-        <v>202</v>
-      </c>
-      <c r="B203" s="4">
-        <f>[1]use_fish!$B203</f>
-        <v>9</v>
-      </c>
-      <c r="C203" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="3">
-        <f>[1]use_fish!$A204</f>
-        <v>203</v>
-      </c>
-      <c r="B204" s="4">
-        <f>[1]use_fish!$B204</f>
-        <v>10</v>
-      </c>
-      <c r="C204" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="3">
-        <f>[1]use_fish!$A205</f>
-        <v>204</v>
-      </c>
-      <c r="B205" s="4">
-        <f>[1]use_fish!$B205</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="3">
-        <f>[1]use_fish!$A206</f>
-        <v>205</v>
-      </c>
-      <c r="B206" s="4">
-        <f>[1]use_fish!$B206</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="3">
-        <f>[1]use_fish!$A207</f>
-        <v>206</v>
-      </c>
-      <c r="B207" s="4">
-        <f>[1]use_fish!$B207</f>
-        <v>35</v>
-      </c>
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_2.9/fish_use_config.xlsx
+++ b/config_2.9/fish_use_config.xlsx
@@ -200,7 +200,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -222,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2259,6 +2262,46 @@
             <v>190</v>
           </cell>
           <cell r="B191">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199">
             <v>35</v>
           </cell>
         </row>
@@ -2894,8 +2937,8 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5550,54 +5593,117 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="8">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4">
+        <f>[1]use_fish!$B192</f>
+        <v>6</v>
+      </c>
+      <c r="C192" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4">
+        <f>[1]use_fish!$B193</f>
+        <v>7</v>
+      </c>
+      <c r="C193" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4">
+        <f>[1]use_fish!$B194</f>
+        <v>8</v>
+      </c>
+      <c r="C194" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4">
+        <f>[1]use_fish!$B195</f>
+        <v>9</v>
+      </c>
+      <c r="C195" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4">
+        <f>[1]use_fish!$B196</f>
+        <v>10</v>
+      </c>
+      <c r="C196" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8">
+        <v>196</v>
+      </c>
+      <c r="B197" s="4">
+        <f>[1]use_fish!$B197</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4">
+        <f>[1]use_fish!$B198</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4">
+        <f>[1]use_fish!$B199</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
